--- a/workingfolder/OtherData/UCSVestQ.xlsx
+++ b/workingfolder/OtherData/UCSVestQ.xlsx
@@ -28,7 +28,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -38,14 +38,30 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -55,1068 +71,3213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C291"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="2" max="2" width="13.7109375" customWidth="true"/>
     <col min="3" max="3" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1">
-        <v>0.10592724658715719</v>
+        <v>0.096989799176860916</v>
       </c>
       <c r="B1">
-        <v>0.10000000000000001</v>
+        <v>0.070710678118654752</v>
       </c>
       <c r="C1">
-        <v>2.9807907769312525</v>
+        <v>2.979681581709019</v>
       </c>
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.10765922765487443</v>
+        <v>0.097573472536533895</v>
       </c>
       <c r="B2">
-        <v>0.10000000000000001</v>
+        <v>0.070710678118654752</v>
       </c>
       <c r="C2">
-        <v>2.987824716887316</v>
+        <v>2.9888083063372002</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>0.10925544000893628</v>
+        <v>0.10004177380945188</v>
       </c>
       <c r="B3">
-        <v>0.10000000000000001</v>
+        <v>0.070710678118654752</v>
       </c>
       <c r="C3">
-        <v>2.9734759789512815</v>
+        <v>2.9763237371594964</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.11144290106785931</v>
+        <v>0.10269428396165084</v>
       </c>
       <c r="B4">
-        <v>0.10000000000000001</v>
+        <v>0.071070511605000913</v>
       </c>
       <c r="C4">
-        <v>2.9509813912560943</v>
+        <v>2.9602919977813311</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.11483819382609246</v>
+        <v>0.10672552405777941</v>
       </c>
       <c r="B5">
-        <v>0.10000000000000001</v>
+        <v>0.071088974489527487</v>
       </c>
       <c r="C5">
-        <v>2.8243347085127044</v>
+        <v>2.8250800235778231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.11661128406323974</v>
+        <v>0.10856718561865691</v>
       </c>
       <c r="B6">
-        <v>0.10000000000000001</v>
+        <v>0.071478504567846976</v>
       </c>
       <c r="C6">
-        <v>2.709738356096921</v>
+        <v>2.7045985024761086</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.11710157155188675</v>
+        <v>0.10977413391963162</v>
       </c>
       <c r="B7">
-        <v>0.10000000000000001</v>
+        <v>0.072133621899395831</v>
       </c>
       <c r="C7">
-        <v>2.6502936052976036</v>
+        <v>2.652525886278529</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.11831907758026855</v>
+        <v>0.11098397888426673</v>
       </c>
       <c r="B8">
-        <v>0.10000000000000001</v>
+        <v>0.073126438023331741</v>
       </c>
       <c r="C8">
-        <v>2.5924793794192831</v>
+        <v>2.5990424570870831</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.12014271501300498</v>
+        <v>0.11324025911406085</v>
       </c>
       <c r="B9">
-        <v>0.10000000000000001</v>
+        <v>0.073961089831572457</v>
       </c>
       <c r="C9">
-        <v>2.4734806106165124</v>
+        <v>2.469477240796623</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.12130561697155882</v>
+        <v>0.11378858635247341</v>
       </c>
       <c r="B10">
-        <v>0.10000000000000001</v>
+        <v>0.075240581646791121</v>
       </c>
       <c r="C10">
-        <v>2.3988275763245968</v>
+        <v>2.3992853935920397</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.12219278608840914</v>
+        <v>0.11550895796027741</v>
       </c>
       <c r="B11">
-        <v>0.10000000000000001</v>
+        <v>0.076249045117436909</v>
       </c>
       <c r="C11">
-        <v>2.2900957847505818</v>
+        <v>2.2794219771691511</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.12240865031618814</v>
+        <v>0.11586468657211929</v>
       </c>
       <c r="B12">
-        <v>0.10000000000000001</v>
+        <v>0.077001017307145522</v>
       </c>
       <c r="C12">
-        <v>2.2758804340154688</v>
+        <v>2.2734899466009071</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>0.12355513015422437</v>
+        <v>0.11746410490188625</v>
       </c>
       <c r="B13">
-        <v>0.10000000000000001</v>
+        <v>0.07834331624110713</v>
       </c>
       <c r="C13">
-        <v>2.2661937169177078</v>
+        <v>2.2643597696503317</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>0.1265840242509107</v>
+        <v>0.11984717647803317</v>
       </c>
       <c r="B14">
-        <v>0.10000000000000001</v>
+        <v>0.079729458617683685</v>
       </c>
       <c r="C14">
-        <v>2.2729246833633945</v>
+        <v>2.2696369806825856</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>0.12915059946831792</v>
+        <v>0.12371169056586635</v>
       </c>
       <c r="B15">
-        <v>0.10000000000000001</v>
+        <v>0.08206953063784396</v>
       </c>
       <c r="C15">
-        <v>2.3167215586116519</v>
+        <v>2.3252950403200767</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>0.13251440326745512</v>
+        <v>0.12773493238404593</v>
       </c>
       <c r="B16">
-        <v>0.10274869338604323</v>
+        <v>0.085179193486898924</v>
       </c>
       <c r="C16">
-        <v>2.3183984496964749</v>
+        <v>2.3416065412774598</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.13789878361599214</v>
+        <v>0.13333895745126084</v>
       </c>
       <c r="B17">
-        <v>0.10405137046977431</v>
+        <v>0.086412639693051962</v>
       </c>
       <c r="C17">
-        <v>2.1169632676741581</v>
+        <v>2.105127151005278</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>0.13987059404203428</v>
+        <v>0.13593685274019821</v>
       </c>
       <c r="B18">
-        <v>0.10526147852676007</v>
+        <v>0.08685414024681315</v>
       </c>
       <c r="C18">
-        <v>2.0375879400922301</v>
+        <v>2.0206040966894458</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>0.14263021517245</v>
+        <v>0.13860590185948923</v>
       </c>
       <c r="B19">
-        <v>0.10658854687329561</v>
+        <v>0.087892963245213618</v>
       </c>
       <c r="C19">
-        <v>2.0627114518378278</v>
+        <v>2.0558195348355048</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>0.1466729916064223</v>
+        <v>0.14335971850060661</v>
       </c>
       <c r="B20">
-        <v>0.10821908642410752</v>
+        <v>0.089074619364832908</v>
       </c>
       <c r="C20">
-        <v>2.0577493719692814</v>
+        <v>2.0272529294903565</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>0.15190692756883317</v>
+        <v>0.14950823381297051</v>
       </c>
       <c r="B21">
-        <v>0.10683112920803658</v>
+        <v>0.087715740461001848</v>
       </c>
       <c r="C21">
-        <v>2.3548489574722691</v>
+        <v>2.3687051491218281</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>0.15338961383556443</v>
+        <v>0.15086931733790038</v>
       </c>
       <c r="B22">
-        <v>0.10576661070355933</v>
+        <v>0.086933696553352785</v>
       </c>
       <c r="C22">
-        <v>2.4905102598360385</v>
+        <v>2.5036858897211918</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>0.15410063330375245</v>
+        <v>0.15072005492404644</v>
       </c>
       <c r="B23">
-        <v>0.10455056850032678</v>
+        <v>0.085771740140955233</v>
       </c>
       <c r="C23">
-        <v>2.5265441228046193</v>
+        <v>2.5288173032230237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>0.15588541719439403</v>
+        <v>0.15345599198346976</v>
       </c>
       <c r="B24">
-        <v>0.10354064499609655</v>
+        <v>0.085179582883684241</v>
       </c>
       <c r="C24">
-        <v>2.5688931945292222</v>
+        <v>2.5713903283599935</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.15887878862894989</v>
+        <v>0.15645830115265191</v>
       </c>
       <c r="B25">
-        <v>0.10346237601005667</v>
+        <v>0.085030103213286329</v>
       </c>
       <c r="C25">
-        <v>2.6114813005016404</v>
+        <v>2.6140032659870003</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.16351021994799292</v>
+        <v>0.16205503197048643</v>
       </c>
       <c r="B26">
-        <v>0.10372303691173956</v>
+        <v>0.084505000420506557</v>
       </c>
       <c r="C26">
-        <v>2.6675040372983734</v>
+        <v>2.6765289298717176</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>0.16925513759460195</v>
+        <v>0.16771078449054339</v>
       </c>
       <c r="B27">
-        <v>0.10437761197242634</v>
+        <v>0.085030303604374524</v>
       </c>
       <c r="C27">
-        <v>2.6461277120029205</v>
+        <v>2.648724860356749</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>0.17602532779921432</v>
+        <v>0.17556047513753192</v>
       </c>
       <c r="B28">
-        <v>0.10593927860303536</v>
+        <v>0.085791470100830727</v>
       </c>
       <c r="C28">
-        <v>2.679486364511142</v>
+        <v>2.7068441553552591</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>0.18444912953606027</v>
+        <v>0.18552131452342888</v>
       </c>
       <c r="B29">
-        <v>0.1059530417806081</v>
+        <v>0.085688220658230951</v>
       </c>
       <c r="C29">
-        <v>2.4605089624930248</v>
+        <v>2.4577649641362704</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>0.19413945235339458</v>
+        <v>0.19547669455757383</v>
       </c>
       <c r="B30">
-        <v>0.10605843487287488</v>
+        <v>0.085348187837294379</v>
       </c>
       <c r="C30">
-        <v>2.2906770002031056</v>
+        <v>2.283811873437366</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>0.20149165253301415</v>
+        <v>0.20389278084031787</v>
       </c>
       <c r="B31">
-        <v>0.10595685917771966</v>
+        <v>0.085012716086889484</v>
       </c>
       <c r="C31">
-        <v>2.2013583450452523</v>
+        <v>2.2129691826737989</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>0.20969702047992178</v>
+        <v>0.21418807991583094</v>
       </c>
       <c r="B32">
-        <v>0.10654606349728668</v>
+        <v>0.085444853473475968</v>
       </c>
       <c r="C32">
-        <v>1.9670043400461483</v>
+        <v>1.9667625347897042</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>0.21777040817176879</v>
+        <v>0.22323671145451957</v>
       </c>
       <c r="B33">
-        <v>0.10727596601945207</v>
+        <v>0.08585050627810667</v>
       </c>
       <c r="C33">
-        <v>1.7409389020547452</v>
+        <v>1.7404438627665251</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>0.22380523787766332</v>
+        <v>0.23066756976964323</v>
       </c>
       <c r="B34">
-        <v>0.10823308456620898</v>
+        <v>0.086466372753173606</v>
       </c>
       <c r="C34">
-        <v>1.4923081715780966</v>
+        <v>1.483701410724048</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>0.22817791169223287</v>
+        <v>0.23639349099251497</v>
       </c>
       <c r="B35">
-        <v>0.10946385327856804</v>
+        <v>0.086887278780292301</v>
       </c>
       <c r="C35">
-        <v>1.2991099737658751</v>
+        <v>1.2790615118291409</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>0.23100312492927155</v>
+        <v>0.2396269809614387</v>
       </c>
       <c r="B36">
-        <v>0.11101066405544974</v>
+        <v>0.087311464708499043</v>
       </c>
       <c r="C36">
-        <v>1.2076100161691694</v>
+        <v>1.1643170821290756</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>0.23681044086956202</v>
+        <v>0.24633173403534292</v>
       </c>
       <c r="B37">
-        <v>0.11084967595132153</v>
+        <v>0.087420570856758056</v>
       </c>
       <c r="C37">
-        <v>1.5481598463674779</v>
+        <v>1.5468874197626343</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>0.23852153447412969</v>
+        <v>0.24767258392416491</v>
       </c>
       <c r="B38">
-        <v>0.11058131510917356</v>
+        <v>0.087683564622024077</v>
       </c>
       <c r="C38">
-        <v>1.8323360922016598</v>
+        <v>1.843878830845024</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>0.23518537257455047</v>
+        <v>0.24504863329281329</v>
       </c>
       <c r="B39">
-        <v>0.1121027317243212</v>
+        <v>0.087983539356338181</v>
       </c>
       <c r="C39">
-        <v>1.9788093112696847</v>
+        <v>1.975589907906496</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>0.23444491801820366</v>
+        <v>0.24501166088219639</v>
       </c>
       <c r="B40">
-        <v>0.11269656428352359</v>
+        <v>0.088564749683077953</v>
       </c>
       <c r="C40">
-        <v>2.2120075804050967</v>
+        <v>2.2330123529582502</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>0.23199488567612603</v>
+        <v>0.24233498834055783</v>
       </c>
       <c r="B41">
-        <v>0.11382906160088288</v>
+        <v>0.089502564770451515</v>
       </c>
       <c r="C41">
-        <v>2.2748192919820154</v>
+        <v>2.3033844261519096</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>0.23073663326604016</v>
+        <v>0.24325184222688789</v>
       </c>
       <c r="B42">
-        <v>0.11421480176378049</v>
+        <v>0.08918439955629609</v>
       </c>
       <c r="C42">
-        <v>2.0717031776425281</v>
+        <v>2.059752642812823</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>0.22893442639035891</v>
+        <v>0.24141784263270641</v>
       </c>
       <c r="B43">
-        <v>0.11551592018240631</v>
+        <v>0.090460860747968136</v>
       </c>
       <c r="C43">
-        <v>1.988472128678562</v>
+        <v>1.9645592006666339</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>0.22963436448611013</v>
+        <v>0.24231563517797722</v>
       </c>
       <c r="B44">
-        <v>0.11646339299959126</v>
+        <v>0.09132000895071013</v>
       </c>
       <c r="C44">
-        <v>2.1138362682443237</v>
+        <v>2.1090844112205041</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>0.2330866373890742</v>
+        <v>0.24544295979252728</v>
       </c>
       <c r="B45">
-        <v>0.11803261627609934</v>
+        <v>0.09262340620683096</v>
       </c>
       <c r="C45">
-        <v>2.1887531759439756</v>
+        <v>2.1597207266648475</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>0.23687589175463725</v>
+        <v>0.25083955970617355</v>
       </c>
       <c r="B46">
-        <v>0.11798680742972813</v>
+        <v>0.093103064992089729</v>
       </c>
       <c r="C46">
-        <v>2.58924402449761</v>
+        <v>2.6102120533760531</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>0.23632130766758624</v>
+        <v>0.25067188628495457</v>
       </c>
       <c r="B47">
-        <v>0.11844713919922129</v>
+        <v>0.093197320603109784</v>
       </c>
       <c r="C47">
-        <v>2.805728094763273</v>
+        <v>2.8509980539223534</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>0.23440249448849299</v>
+        <v>0.24766697996539574</v>
       </c>
       <c r="B48">
-        <v>0.11932700471147997</v>
+        <v>0.092369144551733381</v>
       </c>
       <c r="C48">
-        <v>2.6179355795694526</v>
+        <v>2.622738060504088</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>0.23248383165564923</v>
+        <v>0.24440490941498738</v>
       </c>
       <c r="B49">
-        <v>0.11835574365449034</v>
+        <v>0.09264640844531663</v>
       </c>
       <c r="C49">
-        <v>2.4778797469960852</v>
+        <v>2.4839198338529989</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>0.23001934321235701</v>
+        <v>0.24121813291950359</v>
       </c>
       <c r="B50">
-        <v>0.11858145023768923</v>
+        <v>0.092892499110791976</v>
       </c>
       <c r="C50">
-        <v>2.2381106652644842</v>
+        <v>2.2172878828637188</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>0.22680507272982714</v>
+        <v>0.23877568481928976</v>
       </c>
       <c r="B51">
-        <v>0.11931681494542849</v>
+        <v>0.092991901963063978</v>
       </c>
       <c r="C51">
-        <v>2.181048339487528</v>
+        <v>2.1536068077839241</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>0.22540512377561356</v>
+        <v>0.2355358424386316</v>
       </c>
       <c r="B52">
-        <v>0.11899424436113847</v>
+        <v>0.09341571853368201</v>
       </c>
       <c r="C52">
-        <v>2.3759021633320616</v>
+        <v>2.3923345954451909</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>0.22330067757664171</v>
+        <v>0.23277740410773551</v>
       </c>
       <c r="B53">
-        <v>0.11866805934917743</v>
+        <v>0.093358251846812637</v>
       </c>
       <c r="C53">
-        <v>2.3788707119607819</v>
+        <v>2.3856735782713034</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>0.22500427382154331</v>
+        <v>0.23247688315349191</v>
       </c>
       <c r="B54">
-        <v>0.11884541841175125</v>
+        <v>0.093762111044921409</v>
       </c>
       <c r="C54">
-        <v>2.3677311404480941</v>
+        <v>2.3818443630588915</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>0.22766353236242121</v>
+        <v>0.23595442880057177</v>
       </c>
       <c r="B55">
-        <v>0.11988263552749834</v>
+        <v>0.094059671777380505</v>
       </c>
       <c r="C55">
-        <v>2.3172840943938122</v>
+        <v>2.35473099986572</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>0.23458703025398653</v>
+        <v>0.24313037183203767</v>
       </c>
       <c r="B56">
-        <v>0.12035027533583582</v>
+        <v>0.093905612179392778</v>
       </c>
       <c r="C56">
-        <v>1.8688674592134318</v>
+        <v>1.8371445006925211</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>0.2338696672343395</v>
+        <v>0.24323158090861699</v>
       </c>
       <c r="B57">
-        <v>0.11976675736525216</v>
+        <v>0.093949129337205464</v>
       </c>
       <c r="C57">
-        <v>1.7874040143583658</v>
+        <v>1.7848413816717745</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>0.23527596517100097</v>
+        <v>0.24427769581396924</v>
       </c>
       <c r="B58">
-        <v>0.11973265535717087</v>
+        <v>0.09380840581224098</v>
       </c>
       <c r="C58">
-        <v>1.698934985443314</v>
+        <v>1.7016900193788875</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>0.23842738343307437</v>
+        <v>0.2498028828768569</v>
       </c>
       <c r="B59">
-        <v>0.11978148504556956</v>
+        <v>0.093677069159420701</v>
       </c>
       <c r="C59">
-        <v>1.5502576124235206</v>
+        <v>1.5325191047513753</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>0.24234697044429471</v>
+        <v>0.25560303299647313</v>
       </c>
       <c r="B60">
-        <v>0.12074870851237056</v>
+        <v>0.093913063380144851</v>
       </c>
       <c r="C60">
-        <v>1.6695121408371514</v>
+        <v>1.7195503527656184</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>0.24695040307987287</v>
+        <v>0.26048417759489051</v>
       </c>
       <c r="B61">
-        <v>0.11900667040653629</v>
+        <v>0.092876176169803121</v>
       </c>
       <c r="C61">
-        <v>1.2163099188968989</v>
+        <v>1.1991568993941706</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>0.24703222881897513</v>
+        <v>0.25864322038601839</v>
       </c>
       <c r="B62">
-        <v>0.11751848083154688</v>
+        <v>0.091913310431559356</v>
       </c>
       <c r="C62">
-        <v>0.9854287606736194</v>
+        <v>0.969518139500674</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>0.24540404441311159</v>
+        <v>0.25547108754728565</v>
       </c>
       <c r="B63">
-        <v>0.11658705082014416</v>
+        <v>0.090838539278525393</v>
       </c>
       <c r="C63">
-        <v>0.84649633210744657</v>
+        <v>0.83031974404090736</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>0.24434704249785028</v>
+        <v>0.25398896921832442</v>
       </c>
       <c r="B64">
-        <v>0.11573767131753906</v>
+        <v>0.09017183617025204</v>
       </c>
       <c r="C64">
-        <v>0.78753468211800559</v>
+        <v>0.74244783983441032</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>0.24587114443604952</v>
+        <v>0.25605479292210015</v>
       </c>
       <c r="B65">
-        <v>0.11326005051370577</v>
+        <v>0.089377689742814737</v>
       </c>
       <c r="C65">
-        <v>1.2094001189794383</v>
+        <v>1.2053747781604778</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>0.24391120121443993</v>
+        <v>0.25164703329557292</v>
       </c>
       <c r="B66">
-        <v>0.11124656228031443</v>
+        <v>0.087776813834741813</v>
       </c>
       <c r="C66">
-        <v>1.5860268302318414</v>
+        <v>1.5866064003046496</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>0.23428130543169018</v>
+        <v>0.24199512551439578</v>
       </c>
       <c r="B67">
-        <v>0.10904769496277364</v>
+        <v>0.08633481492017081</v>
       </c>
       <c r="C67">
-        <v>1.9604098862264885</v>
+        <v>1.9722589996514528</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>0.22148843747820332</v>
+        <v>0.2275147810934367</v>
       </c>
       <c r="B68">
-        <v>0.108507550364053</v>
+        <v>0.085621130298833462</v>
       </c>
       <c r="C68">
-        <v>2.2032350784392647</v>
+        <v>2.2297296401992006</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>0.20733968883202358</v>
+        <v>0.21231566294955664</v>
       </c>
       <c r="B69">
-        <v>0.10666222409148154</v>
+        <v>0.084620549771874998</v>
       </c>
       <c r="C69">
-        <v>2.2158052703376701</v>
+        <v>2.2303128671450896</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>0.19645692291625844</v>
+        <v>0.20044036118196396</v>
       </c>
       <c r="B70">
-        <v>0.10511252909465696</v>
+        <v>0.083734550913028227</v>
       </c>
       <c r="C70">
-        <v>2.1537038386084655</v>
+        <v>2.1673733222334217</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>0.18776338195359188</v>
+        <v>0.19121635428829159</v>
       </c>
       <c r="B71">
-        <v>0.10435510693802082</v>
+        <v>0.084072661257998255</v>
       </c>
       <c r="C71">
-        <v>2.0155394466976357</v>
+        <v>2.0136624488237258</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>0.17947667332472342</v>
+        <v>0.18183713537175139</v>
       </c>
       <c r="B72">
-        <v>0.10340800458593394</v>
+        <v>0.083192266263759113</v>
       </c>
       <c r="C72">
-        <v>1.9147120467163918</v>
+        <v>1.9110896670004618</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>0.17135329332806312</v>
+        <v>0.17299353368453851</v>
       </c>
       <c r="B73">
-        <v>0.10277933395280019</v>
+        <v>0.083522630135264564</v>
       </c>
       <c r="C73">
-        <v>1.8527004930960329</v>
+        <v>1.8575682846909261</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.1651699740813059</v>
+        <v>0.16720167011959419</v>
       </c>
       <c r="B74">
-        <v>0.10243842384936896</v>
+        <v>0.083487547990699323</v>
       </c>
       <c r="C74">
-        <v>1.7096997042205784</v>
+        <v>1.6889150644165052</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>0.15759524707198055</v>
+        <v>0.15995841069422212</v>
       </c>
       <c r="B75">
-        <v>0.10214489120357645</v>
+        <v>0.082946846760512782</v>
       </c>
       <c r="C75">
-        <v>1.7421360777903887</v>
+        <v>1.7411179012256093</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>0.15280732271423364</v>
+        <v>0.15465834456361927</v>
       </c>
       <c r="B76">
-        <v>0.10111419513280653</v>
+        <v>0.082009500286231246</v>
       </c>
       <c r="C76">
-        <v>1.738684307123632</v>
+        <v>1.7369811671113131</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>0.14955206474906854</v>
+        <v>0.15079997294873071</v>
       </c>
       <c r="B77">
-        <v>0.10083527577790244</v>
+        <v>0.082547649016536634</v>
       </c>
       <c r="C77">
-        <v>1.7128552099755301</v>
+        <v>1.7011656320086312</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.14727465250019678</v>
+        <v>0.14955909683878194</v>
       </c>
       <c r="B78">
-        <v>0.10077343858268295</v>
+        <v>0.081698230303938024</v>
       </c>
       <c r="C78">
-        <v>1.8205733951528287</v>
+        <v>1.8413018691833161</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>0.145597522403344</v>
+        <v>0.14818578684123568</v>
       </c>
       <c r="B79">
-        <v>0.10000000000000001</v>
+        <v>0.081059919298845734</v>
       </c>
       <c r="C79">
-        <v>1.7473071923667995</v>
+        <v>1.7460398893311004</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>0.14426491598796876</v>
+        <v>0.14471420964776988</v>
       </c>
       <c r="B80">
-        <v>0.10000000000000001</v>
+        <v>0.081066291483241973</v>
       </c>
       <c r="C80">
-        <v>1.6908401527757904</v>
+        <v>1.6766303042545498</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.14208774534256352</v>
+        <v>0.14266783611937112</v>
       </c>
       <c r="B81">
-        <v>0.10000000000000001</v>
+        <v>0.080045417355872034</v>
       </c>
       <c r="C81">
-        <v>1.7476015388587145</v>
+        <v>1.7407831970675351</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>0.14175037940709712</v>
+        <v>0.14172025910908129</v>
       </c>
       <c r="B82">
-        <v>0.10000000000000001</v>
+        <v>0.079662304356235308</v>
       </c>
       <c r="C82">
-        <v>1.8050024992351741</v>
+        <v>1.7938952448445016</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.14129585761302529</v>
+        <v>0.14255047149033295</v>
       </c>
       <c r="B83">
-        <v>0.10000000000000001</v>
+        <v>0.079391821914347765</v>
       </c>
       <c r="C83">
-        <v>1.9172993000804506</v>
+        <v>1.9139124295670067</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>0.14105120217010955</v>
+        <v>0.14188559502039322</v>
       </c>
       <c r="B84">
-        <v>0.10000000000000001</v>
+        <v>0.079349831109149421</v>
       </c>
       <c r="C84">
-        <v>2.0600634378750509</v>
+        <v>2.0690714362439806</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.14004258835328837</v>
+        <v>0.14031724534007886</v>
       </c>
       <c r="B85">
-        <v>0.10000000000000001</v>
+        <v>0.079690096391873855</v>
       </c>
       <c r="C85">
-        <v>2.1469614504520904</v>
+        <v>2.1587489900307935</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.13998746800625761</v>
+        <v>0.13953469355505838</v>
       </c>
       <c r="B86">
-        <v>0.10000000000000001</v>
+        <v>0.080129944209359483</v>
       </c>
       <c r="C86">
-        <v>2.1905369249055329</v>
+        <v>2.2028906339811654</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.13917117516342659</v>
+        <v>0.13944454145039928</v>
       </c>
       <c r="B87">
-        <v>0.10063297391822143</v>
+        <v>0.080803843236827835</v>
       </c>
       <c r="C87">
-        <v>2.1884059150460562</v>
+        <v>2.2003728090401533</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.1408216654232432</v>
+        <v>0.14060778773132449</v>
       </c>
       <c r="B88">
-        <v>0.10183427203759959</v>
+        <v>0.082033647243306362</v>
       </c>
       <c r="C88">
-        <v>2.139050948982705</v>
+        <v>2.1563558006908883</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>0.14186959256780471</v>
+        <v>0.14283533367925344</v>
       </c>
       <c r="B89">
-        <v>0.10179941800083012</v>
+        <v>0.082317160821534618</v>
       </c>
       <c r="C89">
-        <v>1.9838416012305546</v>
+        <v>1.9839599167172679</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>0.14324709436358796</v>
+        <v>0.14402255616569656</v>
       </c>
       <c r="B90">
-        <v>0.10359837368693103</v>
+        <v>0.08300276919896428</v>
       </c>
       <c r="C90">
-        <v>1.8140397476272105</v>
+        <v>1.7912767116518824</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>0.14230873288301721</v>
+        <v>0.14195528950903005</v>
       </c>
       <c r="B91">
-        <v>0.10422473545391694</v>
+        <v>0.083782060008757125</v>
       </c>
       <c r="C91">
-        <v>1.7802199052940488</v>
+        <v>1.7580797396135557</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.14196589384065539</v>
+        <v>0.14241296462000272</v>
       </c>
       <c r="B92">
-        <v>0.10446413620291406</v>
+        <v>0.084046981111450592</v>
       </c>
       <c r="C92">
-        <v>1.8550059347551726</v>
+        <v>1.8346515353038111</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.14294161983949197</v>
+        <v>0.14247291357014538</v>
       </c>
       <c r="B93">
-        <v>0.10395718242289442</v>
+        <v>0.084080307179552782</v>
       </c>
       <c r="C93">
-        <v>2.0498483873283577</v>
+        <v>2.0605509967854259</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>0.14154086239720332</v>
+        <v>0.14035343421739849</v>
       </c>
       <c r="B94">
-        <v>0.104008834314918</v>
+        <v>0.083438995181024767</v>
       </c>
       <c r="C94">
-        <v>2.1662956357059633</v>
+        <v>2.1838057994906768</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.13862969177474443</v>
+        <v>0.13814637353606182</v>
       </c>
       <c r="B95">
-        <v>0.1032141021731286</v>
+        <v>0.083395138102676153</v>
       </c>
       <c r="C95">
-        <v>2.1778470734968307</v>
+        <v>2.1819261862349784</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.13778190961387135</v>
+        <v>0.13661716347389669</v>
       </c>
       <c r="B96">
-        <v>0.10253778771695221</v>
+        <v>0.082819342830875636</v>
       </c>
       <c r="C96">
-        <v>2.1976180826293326</v>
+        <v>2.2019056041362681</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.33130492028334874</v>
+      </c>
+      <c r="B97">
+        <v>0.093616458268264674</v>
+      </c>
+      <c r="C97">
+        <v>2.7594724249075253</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.33151067780796784</v>
+      </c>
+      <c r="B98">
+        <v>0.09399845965180828</v>
+      </c>
+      <c r="C98">
+        <v>3.0976136874197948</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.32851407735798288</v>
+      </c>
+      <c r="B99">
+        <v>0.094075919134990776</v>
+      </c>
+      <c r="C99">
+        <v>2.9599080131838571</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.32782849346362897</v>
+      </c>
+      <c r="B100">
+        <v>0.093666924220689465</v>
+      </c>
+      <c r="C100">
+        <v>2.215119174087079</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.31895736716641854</v>
+      </c>
+      <c r="B101">
+        <v>0.093070183630084291</v>
+      </c>
+      <c r="C101">
+        <v>1.928659325963086</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>0.30894923600566876</v>
+      </c>
+      <c r="B102">
+        <v>0.092506026887510528</v>
+      </c>
+      <c r="C102">
+        <v>1.9600903771824185</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>0.29848448860734123</v>
+      </c>
+      <c r="B103">
+        <v>0.092400374243302774</v>
+      </c>
+      <c r="C103">
+        <v>2.061426461240548</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>0.29479515125064254</v>
+      </c>
+      <c r="B104">
+        <v>0.092372679881786462</v>
+      </c>
+      <c r="C104">
+        <v>2.2140702603853226</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>0.29362904828558017</v>
+      </c>
+      <c r="B105">
+        <v>0.092732867288958826</v>
+      </c>
+      <c r="C105">
+        <v>2.3310396068282473</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>0.29723132159015553</v>
+      </c>
+      <c r="B106">
+        <v>0.092273303449256938</v>
+      </c>
+      <c r="C106">
+        <v>2.0597076439253201</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>0.29808784187811621</v>
+      </c>
+      <c r="B107">
+        <v>0.092394428531830941</v>
+      </c>
+      <c r="C107">
+        <v>1.9497320377153191</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>0.30205804446013806</v>
+      </c>
+      <c r="B108">
+        <v>0.092706064487422024</v>
+      </c>
+      <c r="C108">
+        <v>2.0250198183166286</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>0.31012193154049428</v>
+      </c>
+      <c r="B109">
+        <v>0.093234181206459266</v>
+      </c>
+      <c r="C109">
+        <v>2.0020966420757409</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>0.32322232275058027</v>
+      </c>
+      <c r="B110">
+        <v>0.093324482941093856</v>
+      </c>
+      <c r="C110">
+        <v>1.7248738991642119</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>0.33565023157465779</v>
+      </c>
+      <c r="B111">
+        <v>0.093993736634600505</v>
+      </c>
+      <c r="C111">
+        <v>1.7845929503444977</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>0.35278880411258889</v>
+      </c>
+      <c r="B112">
+        <v>0.093926632968663132</v>
+      </c>
+      <c r="C112">
+        <v>2.2989435800748965</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>0.36529435854798997</v>
+      </c>
+      <c r="B113">
+        <v>0.094751359368737353</v>
+      </c>
+      <c r="C113">
+        <v>2.8706765944065595</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>0.36772181155737038</v>
+      </c>
+      <c r="B114">
+        <v>0.094988474049899962</v>
+      </c>
+      <c r="C114">
+        <v>3.1256512793657101</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>0.37341160666463175</v>
+      </c>
+      <c r="B115">
+        <v>0.09533677418850478</v>
+      </c>
+      <c r="C115">
+        <v>2.9279075341952709</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>0.3809569099377117</v>
+      </c>
+      <c r="B116">
+        <v>0.095765761479005951</v>
+      </c>
+      <c r="C116">
+        <v>2.5772255684327536</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>0.38715880739304159</v>
+      </c>
+      <c r="B117">
+        <v>0.095596775422254948</v>
+      </c>
+      <c r="C117">
+        <v>2.581837011186574</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>0.40146833221816386</v>
+      </c>
+      <c r="B118">
+        <v>0.097533849772152625</v>
+      </c>
+      <c r="C118">
+        <v>3.1723830601034848</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>0.40645517815308291</v>
+      </c>
+      <c r="B119">
+        <v>0.097891106531117128</v>
+      </c>
+      <c r="C119">
+        <v>3.5740427141193072</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>0.41204803022044689</v>
+      </c>
+      <c r="B120">
+        <v>0.09853958444737812</v>
+      </c>
+      <c r="C120">
+        <v>3.3305513070630761</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>0.41782799060455711</v>
+      </c>
+      <c r="B121">
+        <v>0.097620216647390221</v>
+      </c>
+      <c r="C121">
+        <v>2.8850309675023262</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>0.41813142736480374</v>
+      </c>
+      <c r="B122">
+        <v>0.097947688484367731</v>
+      </c>
+      <c r="C122">
+        <v>3.0546501311077519</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>0.42537745483517198</v>
+      </c>
+      <c r="B123">
+        <v>0.098596252456566433</v>
+      </c>
+      <c r="C123">
+        <v>3.2061374384945309</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>0.43951997968565898</v>
+      </c>
+      <c r="B124">
+        <v>0.099374144619167354</v>
+      </c>
+      <c r="C124">
+        <v>3.3279905111625525</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>0.45961561818065821</v>
+      </c>
+      <c r="B125">
+        <v>0.099453509456709152</v>
+      </c>
+      <c r="C125">
+        <v>2.8810848097629744</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>0.47543137375413758</v>
+      </c>
+      <c r="B126">
+        <v>0.10018676687635614</v>
+      </c>
+      <c r="C126">
+        <v>2.5815945050470628</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>0.49736711189710092</v>
+      </c>
+      <c r="B127">
+        <v>0.10089038058085464</v>
+      </c>
+      <c r="C127">
+        <v>3.074204054040778</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>0.51522954475360594</v>
+      </c>
+      <c r="B128">
+        <v>0.10054833047883328</v>
+      </c>
+      <c r="C128">
+        <v>3.6624029294264933</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>0.52888122751656996</v>
+      </c>
+      <c r="B129">
+        <v>0.10140678054188808</v>
+      </c>
+      <c r="C129">
+        <v>4.6780089805231775</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>0.52410354511814461</v>
+      </c>
+      <c r="B130">
+        <v>0.10147084980978162</v>
+      </c>
+      <c r="C130">
+        <v>4.3170386329625252</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>0.52366014974499997</v>
+      </c>
+      <c r="B131">
+        <v>0.10175597395446749</v>
+      </c>
+      <c r="C131">
+        <v>3.3821304602718736</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>0.50631624780925355</v>
+      </c>
+      <c r="B132">
+        <v>0.10107078664227034</v>
+      </c>
+      <c r="C132">
+        <v>3.3753676422451777</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>0.50078926178052974</v>
+      </c>
+      <c r="B133">
+        <v>0.10177678772865467</v>
+      </c>
+      <c r="C133">
+        <v>3.9715736482718267</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>0.48657654281486701</v>
+      </c>
+      <c r="B134">
+        <v>0.10287922814570649</v>
+      </c>
+      <c r="C134">
+        <v>3.6451690704146773</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <v>0.4741937327824951</v>
+      </c>
+      <c r="B135">
+        <v>0.10277495389173065</v>
+      </c>
+      <c r="C135">
+        <v>3.4427151709902035</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>0.47180176339779295</v>
+      </c>
+      <c r="B136">
+        <v>0.10282745013882405</v>
+      </c>
+      <c r="C136">
+        <v>3.626407592544286</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>0.47188805966825803</v>
+      </c>
+      <c r="B137">
+        <v>0.10303338794498675</v>
+      </c>
+      <c r="C137">
+        <v>3.965928661648805</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>0.47733450229819607</v>
+      </c>
+      <c r="B138">
+        <v>0.10270564705804633</v>
+      </c>
+      <c r="C138">
+        <v>4.1630810808926846</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>0.48572961924604963</v>
+      </c>
+      <c r="B139">
+        <v>0.10272997844322854</v>
+      </c>
+      <c r="C139">
+        <v>4.0947935361627188</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>0.50178984761682022</v>
+      </c>
+      <c r="B140">
+        <v>0.10381383617170546</v>
+      </c>
+      <c r="C140">
+        <v>3.8608230195573201</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>0.52778772992056222</v>
+      </c>
+      <c r="B141">
+        <v>0.1039627303342319</v>
+      </c>
+      <c r="C141">
+        <v>2.0699857869802276</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>0.52770324526529999</v>
+      </c>
+      <c r="B142">
+        <v>0.10419738857874605</v>
+      </c>
+      <c r="C142">
+        <v>1.4629052587530089</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>0.52326989035936222</v>
+      </c>
+      <c r="B143">
+        <v>0.10389080002151563</v>
+      </c>
+      <c r="C143">
+        <v>1.9712706355404681</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>0.51337044727830417</v>
+      </c>
+      <c r="B144">
+        <v>0.1038734592975753</v>
+      </c>
+      <c r="C144">
+        <v>2.4784056166021449</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>0.50060896154441425</v>
+      </c>
+      <c r="B145">
+        <v>0.1036369494239423</v>
+      </c>
+      <c r="C145">
+        <v>2.1140422717798177</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>0.48484181874773868</v>
+      </c>
+      <c r="B146">
+        <v>0.10325084039239543</v>
+      </c>
+      <c r="C146">
+        <v>2.4242884790941068</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <v>0.47770658802562782</v>
+      </c>
+      <c r="B147">
+        <v>0.10246000421821227</v>
+      </c>
+      <c r="C147">
+        <v>2.7696547057937462</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>0.46803980183287219</v>
+      </c>
+      <c r="B148">
+        <v>0.10108724140637614</v>
+      </c>
+      <c r="C148">
+        <v>2.6059873733168799</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <v>0.4669758938211101</v>
+      </c>
+      <c r="B149">
+        <v>0.10099026871428164</v>
+      </c>
+      <c r="C149">
+        <v>2.7030844870555093</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>0.47399465179317646</v>
+      </c>
+      <c r="B150">
+        <v>0.10080084279469761</v>
+      </c>
+      <c r="C150">
+        <v>2.6761607356443791</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>0.48819055505503983</v>
+      </c>
+      <c r="B151">
+        <v>0.10047269216146616</v>
+      </c>
+      <c r="C151">
+        <v>2.3181663781395017</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <v>0.49988078032891603</v>
+      </c>
+      <c r="B152">
+        <v>0.1005212206358865</v>
+      </c>
+      <c r="C152">
+        <v>1.9563205447481089</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>0.51195433586693584</v>
+      </c>
+      <c r="B153">
+        <v>0.10032219195732081</v>
+      </c>
+      <c r="C153">
+        <v>2.8290659174312771</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>0.51632186166273075</v>
+      </c>
+      <c r="B154">
+        <v>0.099876424084549303</v>
+      </c>
+      <c r="C154">
+        <v>3.6067061659282831</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>0.51057298427755848</v>
+      </c>
+      <c r="B155">
+        <v>0.10010334432551338</v>
+      </c>
+      <c r="C155">
+        <v>4.3339322009132237</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>0.49166877635044176</v>
+      </c>
+      <c r="B156">
+        <v>0.10019277105673904</v>
+      </c>
+      <c r="C156">
+        <v>4.1253434174854373</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>0.48449422534751929</v>
+      </c>
+      <c r="B157">
+        <v>0.099369249150767641</v>
+      </c>
+      <c r="C157">
+        <v>4.2794604909835252</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>0.48132481042674125</v>
+      </c>
+      <c r="B158">
+        <v>0.09898414621011023</v>
+      </c>
+      <c r="C158">
+        <v>4.1424262480949308</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>0.48719747172807981</v>
+      </c>
+      <c r="B159">
+        <v>0.098857490217347785</v>
+      </c>
+      <c r="C159">
+        <v>3.9806347429856159</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>0.49912731923246939</v>
+      </c>
+      <c r="B160">
+        <v>0.098786867137836673</v>
+      </c>
+      <c r="C160">
+        <v>3.9205507094159584</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>0.5212705093080725</v>
+      </c>
+      <c r="B161">
+        <v>0.099702273076521797</v>
+      </c>
+      <c r="C161">
+        <v>4.1103503790918685</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>0.54937121892824026</v>
+      </c>
+      <c r="B162">
+        <v>0.098751384801451972</v>
+      </c>
+      <c r="C162">
+        <v>4.9198970186679141</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <v>0.56951254820500796</v>
+      </c>
+      <c r="B163">
+        <v>0.099163981037775545</v>
+      </c>
+      <c r="C163">
+        <v>5.4701883057597183</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>0.58454442472543966</v>
+      </c>
+      <c r="B164">
+        <v>0.098864643800730526</v>
+      </c>
+      <c r="C164">
+        <v>5.2994873350186928</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>0.61428109309126311</v>
+      </c>
+      <c r="B165">
+        <v>0.098358327694814174</v>
+      </c>
+      <c r="C165">
+        <v>4.9266384375338692</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>0.64162779619341914</v>
+      </c>
+      <c r="B166">
+        <v>0.09752348602262223</v>
+      </c>
+      <c r="C166">
+        <v>3.6965807214834898</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>0.65674159254527176</v>
+      </c>
+      <c r="B167">
+        <v>0.09852016213540804</v>
+      </c>
+      <c r="C167">
+        <v>1.1391687606994325</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <v>0.63824220769022255</v>
+      </c>
+      <c r="B168">
+        <v>0.097521617165489072</v>
+      </c>
+      <c r="C168">
+        <v>0.010581098545802803</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>0.60709045083562008</v>
+      </c>
+      <c r="B169">
+        <v>0.097712720449683599</v>
+      </c>
+      <c r="C169">
+        <v>-0.10479342501287814</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>0.58610491882876792</v>
+      </c>
+      <c r="B170">
+        <v>0.097279565703473264</v>
+      </c>
+      <c r="C170">
+        <v>-0.008440821219688921</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>0.58081085361285179</v>
+      </c>
+      <c r="B171">
+        <v>0.097542157512715763</v>
+      </c>
+      <c r="C171">
+        <v>-0.43668370508452892</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>0.57270210863220061</v>
+      </c>
+      <c r="B172">
+        <v>0.097395779645744834</v>
+      </c>
+      <c r="C172">
+        <v>-0.58258475395423348</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>0.57374999267592242</v>
+      </c>
+      <c r="B173">
+        <v>0.097313940414588546</v>
+      </c>
+      <c r="C173">
+        <v>-1.010418547259416</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>0.5761192228447658</v>
+      </c>
+      <c r="B174">
+        <v>0.097309505307556929</v>
+      </c>
+      <c r="C174">
+        <v>-1.245210413446987</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>0.58377738167745585</v>
+      </c>
+      <c r="B175">
+        <v>0.09732287273812526</v>
+      </c>
+      <c r="C175">
+        <v>-1.9185096242237556</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <v>0.58445537951152249</v>
+      </c>
+      <c r="B176">
+        <v>0.097263480337081001</v>
+      </c>
+      <c r="C176">
+        <v>-1.489938791490931</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>0.58742445634023865</v>
+      </c>
+      <c r="B177">
+        <v>0.096925440522761919</v>
+      </c>
+      <c r="C177">
+        <v>-1.3432838235071678</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>0.59816187088100137</v>
+      </c>
+      <c r="B178">
+        <v>0.096323599111598296</v>
+      </c>
+      <c r="C178">
+        <v>-0.19383558011023361</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>0.5904164088250925</v>
+      </c>
+      <c r="B179">
+        <v>0.09578687006956238</v>
+      </c>
+      <c r="C179">
+        <v>1.8787240050073906</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>0.55603736574621221</v>
+      </c>
+      <c r="B180">
+        <v>0.095468565196925342</v>
+      </c>
+      <c r="C180">
+        <v>2.774162102640827</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>0.51401784294227137</v>
+      </c>
+      <c r="B181">
+        <v>0.095125770626021441</v>
+      </c>
+      <c r="C181">
+        <v>2.6062030643492498</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>0.48307787039252886</v>
+      </c>
+      <c r="B182">
+        <v>0.095032939157703084</v>
+      </c>
+      <c r="C182">
+        <v>2.1754230636985978</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>0.45352697913999174</v>
+      </c>
+      <c r="B183">
+        <v>0.09492375748348017</v>
+      </c>
+      <c r="C183">
+        <v>2.2742853561161573</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>0.43019432540155089</v>
+      </c>
+      <c r="B184">
+        <v>0.093599989226754499</v>
+      </c>
+      <c r="C184">
+        <v>2.1934285003237246</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>0.41705214989273665</v>
+      </c>
+      <c r="B185">
+        <v>0.093289660842363481</v>
+      </c>
+      <c r="C185">
+        <v>1.9691798989728309</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>0.40557194467036894</v>
+      </c>
+      <c r="B186">
+        <v>0.093450988891158354</v>
+      </c>
+      <c r="C186">
+        <v>1.1812889828973816</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>0.38428584717992303</v>
+      </c>
+      <c r="B187">
+        <v>0.092312102111249961</v>
+      </c>
+      <c r="C187">
+        <v>1.3202627803600366</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <v>0.36786685373995021</v>
+      </c>
+      <c r="B188">
+        <v>0.091403659100498386</v>
+      </c>
+      <c r="C188">
+        <v>1.1596825455833351</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>0.35393443628127164</v>
+      </c>
+      <c r="B189">
+        <v>0.090593258080394007</v>
+      </c>
+      <c r="C189">
+        <v>1.1256085751124458</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>0.34678795390550887</v>
+      </c>
+      <c r="B190">
+        <v>0.089752025323320411</v>
+      </c>
+      <c r="C190">
+        <v>1.1601600440202451</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>0.34705771083232861</v>
+      </c>
+      <c r="B191">
+        <v>0.089117011802611779</v>
+      </c>
+      <c r="C191">
+        <v>1.1118015459389747</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>0.35464093859370449</v>
+      </c>
+      <c r="B192">
+        <v>0.088686738914971891</v>
+      </c>
+      <c r="C192">
+        <v>1.4361835235428466</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>0.3553049563408105</v>
+      </c>
+      <c r="B193">
+        <v>0.088226943012485654</v>
+      </c>
+      <c r="C193">
+        <v>1.7100227649412261</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>0.36007299417004057</v>
+      </c>
+      <c r="B194">
+        <v>0.087939082868789459</v>
+      </c>
+      <c r="C194">
+        <v>2.1290618560352104</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>0.35760684030921408</v>
+      </c>
+      <c r="B195">
+        <v>0.086881383229950995</v>
+      </c>
+      <c r="C195">
+        <v>2.6184752639321047</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>0.34899424085100067</v>
+      </c>
+      <c r="B196">
+        <v>0.086400495236237107</v>
+      </c>
+      <c r="C196">
+        <v>3.0728673485030984</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>0.33372980133091901</v>
+      </c>
+      <c r="B197">
+        <v>0.085832162332940914</v>
+      </c>
+      <c r="C197">
+        <v>3.4354529363102517</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>0.32081952358246807</v>
+      </c>
+      <c r="B198">
+        <v>0.085614593951027509</v>
+      </c>
+      <c r="C198">
+        <v>3.5038702985053223</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>0.31052230704554507</v>
+      </c>
+      <c r="B199">
+        <v>0.085580827610653568</v>
+      </c>
+      <c r="C199">
+        <v>3.5872129552966996</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>0.30295049844813737</v>
+      </c>
+      <c r="B200">
+        <v>0.085522923505041537</v>
+      </c>
+      <c r="C200">
+        <v>3.7421097796494327</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>0.29989729766882356</v>
+      </c>
+      <c r="B201">
+        <v>0.085715507838244429</v>
+      </c>
+      <c r="C201">
+        <v>3.7815197593232242</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>0.29755155693206836</v>
+      </c>
+      <c r="B202">
+        <v>0.085850964011393416</v>
+      </c>
+      <c r="C202">
+        <v>3.5343454654701469</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>0.29645156285562674</v>
+      </c>
+      <c r="B203">
+        <v>0.085879463112678467</v>
+      </c>
+      <c r="C203">
+        <v>3.4294230682192426</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>0.29878446033784467</v>
+      </c>
+      <c r="B204">
+        <v>0.085886526755553416</v>
+      </c>
+      <c r="C204">
+        <v>3.0874369827348707</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>0.29708961702643788</v>
+      </c>
+      <c r="B205">
+        <v>0.085249468383830254</v>
+      </c>
+      <c r="C205">
+        <v>3.0050417538055294</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>0.29926202487103276</v>
+      </c>
+      <c r="B206">
+        <v>0.085522131057094108</v>
+      </c>
+      <c r="C206">
+        <v>2.8815864792098189</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>0.3054930257441304</v>
+      </c>
+      <c r="B207">
+        <v>0.08619012979582967</v>
+      </c>
+      <c r="C207">
+        <v>2.5810021704996045</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>0.30790898290468371</v>
+      </c>
+      <c r="B208">
+        <v>0.086024223682474241</v>
+      </c>
+      <c r="C208">
+        <v>2.2567836576710207</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>0.30893902609847657</v>
+      </c>
+      <c r="B209">
+        <v>0.086588067206359087</v>
+      </c>
+      <c r="C209">
+        <v>1.7750806243579504</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>0.30348093598735659</v>
+      </c>
+      <c r="B210">
+        <v>0.086312663199103939</v>
+      </c>
+      <c r="C210">
+        <v>1.649587344315611</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>0.30206216656241974</v>
+      </c>
+      <c r="B211">
+        <v>0.08660104302053187</v>
+      </c>
+      <c r="C211">
+        <v>1.4594596762066345</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>0.30239605015588844</v>
+      </c>
+      <c r="B212">
+        <v>0.086873051999850459</v>
+      </c>
+      <c r="C212">
+        <v>1.6876569350732584</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>0.30224694797797647</v>
+      </c>
+      <c r="B213">
+        <v>0.087612423474709891</v>
+      </c>
+      <c r="C213">
+        <v>1.9377890855180298</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>0.30058109549459155</v>
+      </c>
+      <c r="B214">
+        <v>0.087785270703202051</v>
+      </c>
+      <c r="C214">
+        <v>2.1079524922069366</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>0.30009250135070742</v>
+      </c>
+      <c r="B215">
+        <v>0.087545707323838803</v>
+      </c>
+      <c r="C215">
+        <v>1.8182178685228996</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>0.30015189730560576</v>
+      </c>
+      <c r="B216">
+        <v>0.088179654066218763</v>
+      </c>
+      <c r="C216">
+        <v>1.7640594115028676</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <v>0.30340472582126332</v>
+      </c>
+      <c r="B217">
+        <v>0.088344924909962402</v>
+      </c>
+      <c r="C217">
+        <v>1.711169145604964</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <v>0.31172611150731078</v>
+      </c>
+      <c r="B218">
+        <v>0.089119323147399732</v>
+      </c>
+      <c r="C218">
+        <v>1.9559131827273473</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <v>0.32016925503172677</v>
+      </c>
+      <c r="B219">
+        <v>0.089431423064201016</v>
+      </c>
+      <c r="C219">
+        <v>1.5279842770349774</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <v>0.32361865430135384</v>
+      </c>
+      <c r="B220">
+        <v>0.08949514712009328</v>
+      </c>
+      <c r="C220">
+        <v>1.1927753793651708</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <v>0.32306281014301408</v>
+      </c>
+      <c r="B221">
+        <v>0.089609012874050542</v>
+      </c>
+      <c r="C221">
+        <v>1.4039387372289265</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <v>0.32436986549868341</v>
+      </c>
+      <c r="B222">
+        <v>0.089350824947881866</v>
+      </c>
+      <c r="C222">
+        <v>1.7013605737438457</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <v>0.32383454107827636</v>
+      </c>
+      <c r="B223">
+        <v>0.088937989313385882</v>
+      </c>
+      <c r="C223">
+        <v>1.8418846074351043</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <v>0.32649395882970678</v>
+      </c>
+      <c r="B224">
+        <v>0.089210906701538029</v>
+      </c>
+      <c r="C224">
+        <v>1.5276824294226325</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <v>0.32630753583181304</v>
+      </c>
+      <c r="B225">
+        <v>0.089736538860940934</v>
+      </c>
+      <c r="C225">
+        <v>1.1175360567499091</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <v>0.32351747374762602</v>
+      </c>
+      <c r="B226">
+        <v>0.089825906931402383</v>
+      </c>
+      <c r="C226">
+        <v>0.92663586675832299</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <v>0.3215439838843388</v>
+      </c>
+      <c r="B227">
+        <v>0.088902088292541329</v>
+      </c>
+      <c r="C227">
+        <v>1.2284274895996323</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <v>0.31736578518772474</v>
+      </c>
+      <c r="B228">
+        <v>0.088901709387720212</v>
+      </c>
+      <c r="C228">
+        <v>1.4879547811383764</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <v>0.31286303527329307</v>
+      </c>
+      <c r="B229">
+        <v>0.088830335409240541</v>
+      </c>
+      <c r="C229">
+        <v>1.5240718643248026</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <v>0.31525054676041342</v>
+      </c>
+      <c r="B230">
+        <v>0.089044628606970433</v>
+      </c>
+      <c r="C230">
+        <v>1.1908259646921331</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <v>0.31406862672332181</v>
+      </c>
+      <c r="B231">
+        <v>0.089054622219741461</v>
+      </c>
+      <c r="C231">
+        <v>1.6126215436646265</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <v>0.30531527728948282</v>
+      </c>
+      <c r="B232">
+        <v>0.088264878079494735</v>
+      </c>
+      <c r="C232">
+        <v>1.9921003964383281</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233">
+        <v>0.29432025568875536</v>
+      </c>
+      <c r="B233">
+        <v>0.088193173950580628</v>
+      </c>
+      <c r="C233">
+        <v>2.1384636282076563</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234">
+        <v>0.28688961368924393</v>
+      </c>
+      <c r="B234">
+        <v>0.08729628796144473</v>
+      </c>
+      <c r="C234">
+        <v>2.0525154719928023</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235">
+        <v>0.28181274939864243</v>
+      </c>
+      <c r="B235">
+        <v>0.087083585465575042</v>
+      </c>
+      <c r="C235">
+        <v>1.9596849599587989</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236">
+        <v>0.28195302975350922</v>
+      </c>
+      <c r="B236">
+        <v>0.08680366991895444</v>
+      </c>
+      <c r="C236">
+        <v>1.7343542297401142</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237">
+        <v>0.28158409155409009</v>
+      </c>
+      <c r="B237">
+        <v>0.08723669134425327</v>
+      </c>
+      <c r="C237">
+        <v>1.681962183470521</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238">
+        <v>0.28451096932541142</v>
+      </c>
+      <c r="B238">
+        <v>0.087291485414944026</v>
+      </c>
+      <c r="C238">
+        <v>1.578919532561867</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239">
+        <v>0.29117487732697844</v>
+      </c>
+      <c r="B239">
+        <v>0.087931639004482115</v>
+      </c>
+      <c r="C239">
+        <v>1.2096754703164678</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240">
+        <v>0.29192017213175891</v>
+      </c>
+      <c r="B240">
+        <v>0.088638083597680883</v>
+      </c>
+      <c r="C240">
+        <v>0.63045962130376143</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241">
+        <v>0.28459841335079566</v>
+      </c>
+      <c r="B241">
+        <v>0.088592602009993027</v>
+      </c>
+      <c r="C241">
+        <v>-0.14733129048115767</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242">
+        <v>0.26708928546026312</v>
+      </c>
+      <c r="B242">
+        <v>0.087963475814583122</v>
+      </c>
+      <c r="C242">
+        <v>-0.12054310971427462</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243">
+        <v>0.2539688422862858</v>
+      </c>
+      <c r="B243">
+        <v>0.087511729509592212</v>
+      </c>
+      <c r="C243">
+        <v>-0.031041288370751374</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244">
+        <v>0.2472140194862989</v>
+      </c>
+      <c r="B244">
+        <v>0.086987083249498692</v>
+      </c>
+      <c r="C244">
+        <v>-0.10074544139817476</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245">
+        <v>0.24282041284977812</v>
+      </c>
+      <c r="B245">
+        <v>0.086123722456083338</v>
+      </c>
+      <c r="C245">
+        <v>0.025935414338843277</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
+        <v>0.23865234653395062</v>
+      </c>
+      <c r="B246">
+        <v>0.086131846267131301</v>
+      </c>
+      <c r="C246">
+        <v>0.17228587622552549</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247">
+        <v>0.23586318336790013</v>
+      </c>
+      <c r="B247">
+        <v>0.085618760527720938</v>
+      </c>
+      <c r="C247">
+        <v>0.22176065044774163</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <v>0.236749532040853</v>
+      </c>
+      <c r="B248">
+        <v>0.085305848418004926</v>
+      </c>
+      <c r="C248">
+        <v>0.21623843900320061</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>0.24122049885970004</v>
+      </c>
+      <c r="B249">
+        <v>0.085809902852586301</v>
+      </c>
+      <c r="C249">
+        <v>0.056052461094838524</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>0.24545660965041566</v>
+      </c>
+      <c r="B250">
+        <v>0.08609789677666127</v>
+      </c>
+      <c r="C250">
+        <v>0.17061986797379447</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>0.25187084491394734</v>
+      </c>
+      <c r="B251">
+        <v>0.086271683445678926</v>
+      </c>
+      <c r="C251">
+        <v>0.43618879827396828</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>0.25640755225881706</v>
+      </c>
+      <c r="B252">
+        <v>0.086430042547848904</v>
+      </c>
+      <c r="C252">
+        <v>0.69346060098290874</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>0.25948054546927168</v>
+      </c>
+      <c r="B253">
+        <v>0.087383315701801009</v>
+      </c>
+      <c r="C253">
+        <v>1.2235557921138907</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254">
+        <v>0.25514399332079685</v>
+      </c>
+      <c r="B254">
+        <v>0.087105921733361041</v>
+      </c>
+      <c r="C254">
+        <v>0.97127705588239754</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
+        <v>0.24974005628526758</v>
+      </c>
+      <c r="B255">
+        <v>0.086267300778325756</v>
+      </c>
+      <c r="C255">
+        <v>0.89961463102847716</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256">
+        <v>0.24611636541059867</v>
+      </c>
+      <c r="B256">
+        <v>0.086274514228779131</v>
+      </c>
+      <c r="C256">
+        <v>1.0949616839884158</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257">
+        <v>0.24252964535328386</v>
+      </c>
+      <c r="B257">
+        <v>0.085189554256379002</v>
+      </c>
+      <c r="C257">
+        <v>1.0524619836897569</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258">
+        <v>0.24390030479485736</v>
+      </c>
+      <c r="B258">
+        <v>0.084211927470671494</v>
+      </c>
+      <c r="C258">
+        <v>1.034761678208832</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259">
+        <v>0.24601702089136943</v>
+      </c>
+      <c r="B259">
+        <v>0.084784387598573027</v>
+      </c>
+      <c r="C259">
+        <v>0.92447193958625995</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260">
+        <v>0.2519523049897372</v>
+      </c>
+      <c r="B260">
+        <v>0.084346005431829046</v>
+      </c>
+      <c r="C260">
+        <v>1.1063062624067852</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261">
+        <v>0.25914702771193432</v>
+      </c>
+      <c r="B261">
+        <v>0.084339300372520881</v>
+      </c>
+      <c r="C261">
+        <v>1.4666607521549342</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262">
+        <v>0.26015722875759073</v>
+      </c>
+      <c r="B262">
+        <v>0.084566803466263329</v>
+      </c>
+      <c r="C262">
+        <v>1.6346095197582833</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263">
+        <v>0.26142762614927012</v>
+      </c>
+      <c r="B263">
+        <v>0.084278171832781051</v>
+      </c>
+      <c r="C263">
+        <v>1.7189822089194262</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264">
+        <v>0.26922262611368225</v>
+      </c>
+      <c r="B264">
+        <v>0.084859840541817624</v>
+      </c>
+      <c r="C264">
+        <v>2.0886165350252375</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265">
+        <v>0.27023866944173264</v>
+      </c>
+      <c r="B265">
+        <v>0.084805931366434939</v>
+      </c>
+      <c r="C265">
+        <v>2.4760735075809235</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266">
+        <v>0.26661538898028075</v>
+      </c>
+      <c r="B266">
+        <v>0.085071591053506146</v>
+      </c>
+      <c r="C266">
+        <v>2.6731845539712746</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267">
+        <v>0.2625696496010943</v>
+      </c>
+      <c r="B267">
+        <v>0.084697870074206427</v>
+      </c>
+      <c r="C267">
+        <v>2.3970765268318832</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268">
+        <v>0.25568231968485028</v>
+      </c>
+      <c r="B268">
+        <v>0.084584199504926239</v>
+      </c>
+      <c r="C268">
+        <v>2.1782976614321679</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269">
+        <v>0.25035726999518215</v>
+      </c>
+      <c r="B269">
+        <v>0.084635879414617948</v>
+      </c>
+      <c r="C269">
+        <v>1.8943464891239303</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270">
+        <v>0.24157019183940548</v>
+      </c>
+      <c r="B270">
+        <v>0.084900529394152449</v>
+      </c>
+      <c r="C270">
+        <v>1.7160524709122691</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271">
+        <v>0.23402425041341421</v>
+      </c>
+      <c r="B271">
+        <v>0.084854185084192707</v>
+      </c>
+      <c r="C271">
+        <v>1.7881476326407764</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272">
+        <v>0.22899499742327556</v>
+      </c>
+      <c r="B272">
+        <v>0.085145427266089188</v>
+      </c>
+      <c r="C272">
+        <v>1.9617972504059051</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273">
+        <v>0.22331200237460019</v>
+      </c>
+      <c r="B273">
+        <v>0.08478400222635081</v>
+      </c>
+      <c r="C273">
+        <v>2.1701851741180418</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274">
+        <v>0.21635403440333079</v>
+      </c>
+      <c r="B274">
+        <v>0.085238241943434656</v>
+      </c>
+      <c r="C274">
+        <v>2.062605846874245</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275">
+        <v>0.21176376720073423</v>
+      </c>
+      <c r="B275">
+        <v>0.085026412460077416</v>
+      </c>
+      <c r="C275">
+        <v>2.164973942192121</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276">
+        <v>0.20955458096914092</v>
+      </c>
+      <c r="B276">
+        <v>0.085053624917021717</v>
+      </c>
+      <c r="C276">
+        <v>2.1201718020205416</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277">
+        <v>0.20787167406463303</v>
+      </c>
+      <c r="B277">
+        <v>0.085423749724795925</v>
+      </c>
+      <c r="C277">
+        <v>2.1157507871379488</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278">
+        <v>0.21003223213573438</v>
+      </c>
+      <c r="B278">
+        <v>0.085509590753792816</v>
+      </c>
+      <c r="C278">
+        <v>2.2241190526108516</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279">
+        <v>0.21488692416024724</v>
+      </c>
+      <c r="B279">
+        <v>0.086201982920984965</v>
+      </c>
+      <c r="C279">
+        <v>2.3532404574833832</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280">
+        <v>0.21844485254801835</v>
+      </c>
+      <c r="B280">
+        <v>0.086831402433772298</v>
+      </c>
+      <c r="C280">
+        <v>2.44703938862075</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281">
+        <v>0.22354973025205691</v>
+      </c>
+      <c r="B281">
+        <v>0.08749954896220688</v>
+      </c>
+      <c r="C281">
+        <v>2.7073331726213761</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282">
+        <v>0.22930874859616379</v>
+      </c>
+      <c r="B282">
+        <v>0.08885072145611117</v>
+      </c>
+      <c r="C282">
+        <v>2.8287866343032846</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283">
+        <v>0.23663197973651129</v>
+      </c>
+      <c r="B283">
+        <v>0.089791332151534869</v>
+      </c>
+      <c r="C283">
+        <v>2.8958262010988189</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284">
+        <v>0.2452876861022989</v>
+      </c>
+      <c r="B284">
+        <v>0.090179000595276892</v>
+      </c>
+      <c r="C284">
+        <v>2.6676036339361913</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285">
+        <v>0.25276704962367058</v>
+      </c>
+      <c r="B285">
+        <v>0.091396955320331222</v>
+      </c>
+      <c r="C285">
+        <v>2.3359009099954653</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286">
+        <v>0.25608636094855231</v>
+      </c>
+      <c r="B286">
+        <v>0.091470732913353586</v>
+      </c>
+      <c r="C286">
+        <v>2.4611723958849061</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287">
+        <v>0.26117989658632557</v>
+      </c>
+      <c r="B287">
+        <v>0.092037709461078587</v>
+      </c>
+      <c r="C287">
+        <v>2.194418190808805</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288">
+        <v>0.26596213255176171</v>
+      </c>
+      <c r="B288">
+        <v>0.092589679162359106</v>
+      </c>
+      <c r="C288">
+        <v>1.9363805966268364</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289">
+        <v>0.2672075769310791</v>
+      </c>
+      <c r="B289">
+        <v>0.093468878909747088</v>
+      </c>
+      <c r="C289">
+        <v>1.5742790929973252</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290">
+        <v>0.26386985699582999</v>
+      </c>
+      <c r="B290">
+        <v>0.093169477818919405</v>
+      </c>
+      <c r="C290">
+        <v>1.5507791234709489</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291">
+        <v>0.26573447566565389</v>
+      </c>
+      <c r="B291">
+        <v>0.09370724591449775</v>
+      </c>
+      <c r="C291">
+        <v>1.8243387953902257</v>
       </c>
     </row>
   </sheetData>
